--- a/data_year/zb/科技/中国科协系统科技活动情况/中国科协系统学术交流活动.xlsx
+++ b/data_year/zb/科技/中国科协系统科技活动情况/中国科协系统学术交流活动.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,148 +488,74 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30588</v>
+        <v>29493</v>
       </c>
       <c r="C2" t="n">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="D2" t="n">
-        <v>3693</v>
+        <v>3823</v>
       </c>
       <c r="E2" t="n">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="F2" t="n">
-        <v>15690</v>
+        <v>15570</v>
       </c>
       <c r="G2" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H2" t="n">
-        <v>11997</v>
+        <v>11747</v>
       </c>
       <c r="I2" t="n">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="J2" t="n">
-        <v>14898</v>
+        <v>13923</v>
       </c>
       <c r="K2" t="n">
-        <v>224</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29825</v>
+        <v>34672</v>
       </c>
       <c r="C3" t="n">
-        <v>455</v>
+        <v>529</v>
       </c>
       <c r="D3" t="n">
-        <v>4117</v>
+        <v>4471</v>
       </c>
       <c r="E3" t="n">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F3" t="n">
-        <v>15951</v>
+        <v>19739</v>
       </c>
       <c r="G3" t="n">
-        <v>225</v>
+        <v>274</v>
       </c>
       <c r="H3" t="n">
-        <v>11834</v>
+        <v>15268</v>
       </c>
       <c r="I3" t="n">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="J3" t="n">
-        <v>13874</v>
+        <v>14933</v>
       </c>
       <c r="K3" t="n">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>29493</v>
-      </c>
-      <c r="C4" t="n">
-        <v>450</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3823</v>
-      </c>
-      <c r="E4" t="n">
-        <v>75</v>
-      </c>
-      <c r="F4" t="n">
-        <v>15570</v>
-      </c>
-      <c r="G4" t="n">
-        <v>209</v>
-      </c>
-      <c r="H4" t="n">
-        <v>11747</v>
-      </c>
-      <c r="I4" t="n">
-        <v>134</v>
-      </c>
-      <c r="J4" t="n">
-        <v>13923</v>
-      </c>
-      <c r="K4" t="n">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>34672</v>
-      </c>
-      <c r="C5" t="n">
-        <v>529</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4471</v>
-      </c>
-      <c r="E5" t="n">
-        <v>90</v>
-      </c>
-      <c r="F5" t="n">
-        <v>19739</v>
-      </c>
-      <c r="G5" t="n">
-        <v>274</v>
-      </c>
-      <c r="H5" t="n">
-        <v>15268</v>
-      </c>
-      <c r="I5" t="n">
-        <v>184</v>
-      </c>
-      <c r="J5" t="n">
-        <v>14933</v>
-      </c>
-      <c r="K5" t="n">
         <v>255</v>
       </c>
     </row>
